--- a/output/reports/work_order_analysis.xlsx
+++ b/output/reports/work_order_analysis.xlsx
@@ -34,7 +34,7 @@
     <t>Generated:</t>
   </si>
   <si>
-    <t>2026-01-16 17:18:08</t>
+    <t>2026-01-16 17:47:53</t>
   </si>
   <si>
     <t>Data Period:</t>
